--- a/Sentiment Analysis using Azure Text Analytics & Power BI/Sample Data for Sentiment Analysis.xlsx
+++ b/Sentiment Analysis using Azure Text Analytics & Power BI/Sample Data for Sentiment Analysis.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-jakodw\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-jakodw\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE77D75D-3A1D-40A1-94FD-2117F8CDA2C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47DA924-46A2-4858-89F8-B1F0A9212D1D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BF7A7BF1-82E2-4AED-B6B7-ECDF130C4597}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Responses" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Responses!$A$1:$C$37</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -552,9 +552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{070CB1B7-E82F-41FD-BA25-987C305E381E}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
